--- a/算法比较/compare.xlsx
+++ b/算法比较/compare.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>CoSaMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,27 @@
   </si>
   <si>
     <t>PSNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      算法
+误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均方误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -139,6 +160,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,7 +928,7 @@
         <v>28.526247704344449</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -925,6 +952,106 @@
         <v>30.638980809608732</v>
       </c>
     </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J38" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="H39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="4">
+        <v>30.594799999999999</v>
+      </c>
+      <c r="J40" s="4">
+        <v>75.083299999999994</v>
+      </c>
+      <c r="K40" s="4">
+        <v>60.206000000000003</v>
+      </c>
+      <c r="L40" s="4">
+        <v>54.841000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="H41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="J41" s="4">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="L41" s="4">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1416</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2218.3000000000002</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1986.4</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1895.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O45" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
